--- a/ETL/DATA_INPUT/cognitive-data.xlsx
+++ b/ETL/DATA_INPUT/cognitive-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adiletgaparov/Documents/GitHub/mbd-bidw/ETL/DATA_INPUT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adiletgaparov/Documents/GitHub/mbd-bidw/ETL/data_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A90021-5524-AE48-B6F4-84CB049E38CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AF93B7-52D3-0C45-9AB5-68D129E7D5A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="15360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PATIENTS" sheetId="1" r:id="rId1"/>
@@ -48695,9 +48695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U367"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -72569,14 +72567,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U367"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:U1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -72641,7 +72642,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>42370</v>
       </c>
       <c r="B2" t="s">
@@ -72706,7 +72707,7 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>42371</v>
       </c>
       <c r="B3" t="s">
@@ -72771,7 +72772,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>42372</v>
       </c>
       <c r="B4" t="s">
@@ -72836,7 +72837,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>42373</v>
       </c>
       <c r="B5" t="s">
@@ -72901,7 +72902,7 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>42374</v>
       </c>
       <c r="B6" t="s">
@@ -72966,7 +72967,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>42375</v>
       </c>
       <c r="B7" t="s">
@@ -73031,7 +73032,7 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>42376</v>
       </c>
       <c r="B8" t="s">
@@ -73096,7 +73097,7 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>42377</v>
       </c>
       <c r="B9" t="s">
@@ -73161,7 +73162,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>42378</v>
       </c>
       <c r="B10" t="s">
@@ -73226,7 +73227,7 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>42379</v>
       </c>
       <c r="B11" t="s">
@@ -73291,7 +73292,7 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>42380</v>
       </c>
       <c r="B12" t="s">
@@ -73356,7 +73357,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>42381</v>
       </c>
       <c r="B13" t="s">
@@ -73421,7 +73422,7 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>42382</v>
       </c>
       <c r="B14" t="s">
@@ -73486,7 +73487,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>42383</v>
       </c>
       <c r="B15" t="s">
@@ -73551,7 +73552,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>42384</v>
       </c>
       <c r="B16" t="s">
@@ -73616,7 +73617,7 @@
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>42385</v>
       </c>
       <c r="B17" t="s">
@@ -73681,7 +73682,7 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>42386</v>
       </c>
       <c r="B18" t="s">
@@ -73746,7 +73747,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>42387</v>
       </c>
       <c r="B19" t="s">
@@ -73811,7 +73812,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>42388</v>
       </c>
       <c r="B20" t="s">
@@ -73876,7 +73877,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>42389</v>
       </c>
       <c r="B21" t="s">
@@ -73941,7 +73942,7 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>42390</v>
       </c>
       <c r="B22" t="s">
@@ -74006,7 +74007,7 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>42391</v>
       </c>
       <c r="B23" t="s">
@@ -74071,7 +74072,7 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>42392</v>
       </c>
       <c r="B24" t="s">
@@ -74136,7 +74137,7 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>42393</v>
       </c>
       <c r="B25" t="s">
@@ -74201,7 +74202,7 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>42394</v>
       </c>
       <c r="B26" t="s">
@@ -74266,7 +74267,7 @@
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>42395</v>
       </c>
       <c r="B27" t="s">
@@ -74331,7 +74332,7 @@
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>42396</v>
       </c>
       <c r="B28" t="s">
@@ -74396,7 +74397,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>42397</v>
       </c>
       <c r="B29" t="s">
@@ -74461,7 +74462,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>42398</v>
       </c>
       <c r="B30" t="s">
@@ -74526,7 +74527,7 @@
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>42399</v>
       </c>
       <c r="B31" t="s">
@@ -74591,7 +74592,7 @@
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>42400</v>
       </c>
       <c r="B32" t="s">
@@ -74656,7 +74657,7 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>42401</v>
       </c>
       <c r="B33" t="s">
@@ -74721,7 +74722,7 @@
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>42402</v>
       </c>
       <c r="B34" t="s">
@@ -74786,7 +74787,7 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>42403</v>
       </c>
       <c r="B35" t="s">
@@ -74851,7 +74852,7 @@
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>42404</v>
       </c>
       <c r="B36" t="s">
@@ -74916,7 +74917,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>42405</v>
       </c>
       <c r="B37" t="s">
@@ -74981,7 +74982,7 @@
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>42406</v>
       </c>
       <c r="B38" t="s">
@@ -75046,7 +75047,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>42407</v>
       </c>
       <c r="B39" t="s">
@@ -75111,7 +75112,7 @@
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>42408</v>
       </c>
       <c r="B40" t="s">
@@ -75176,7 +75177,7 @@
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>42409</v>
       </c>
       <c r="B41" t="s">
@@ -75241,7 +75242,7 @@
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>42410</v>
       </c>
       <c r="B42" t="s">
@@ -75306,7 +75307,7 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42411</v>
       </c>
       <c r="B43" t="s">
@@ -75371,7 +75372,7 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>42412</v>
       </c>
       <c r="B44" t="s">
@@ -75436,7 +75437,7 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>42413</v>
       </c>
       <c r="B45" t="s">
@@ -75501,7 +75502,7 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>42414</v>
       </c>
       <c r="B46" t="s">
@@ -75566,7 +75567,7 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>42415</v>
       </c>
       <c r="B47" t="s">
@@ -75631,7 +75632,7 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>42416</v>
       </c>
       <c r="B48" t="s">
@@ -75696,7 +75697,7 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>42417</v>
       </c>
       <c r="B49" t="s">
@@ -75761,7 +75762,7 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>42418</v>
       </c>
       <c r="B50" t="s">
@@ -75826,7 +75827,7 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>42419</v>
       </c>
       <c r="B51" t="s">
@@ -75891,7 +75892,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>42420</v>
       </c>
       <c r="B52" t="s">
@@ -75956,7 +75957,7 @@
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>42421</v>
       </c>
       <c r="B53" t="s">
@@ -76021,7 +76022,7 @@
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>42422</v>
       </c>
       <c r="B54" t="s">
@@ -76086,7 +76087,7 @@
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>42423</v>
       </c>
       <c r="B55" t="s">
@@ -76151,7 +76152,7 @@
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>42424</v>
       </c>
       <c r="B56" t="s">
@@ -76216,7 +76217,7 @@
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>42425</v>
       </c>
       <c r="B57" t="s">
@@ -76281,7 +76282,7 @@
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>42426</v>
       </c>
       <c r="B58" t="s">
@@ -76346,7 +76347,7 @@
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>42427</v>
       </c>
       <c r="B59" t="s">
@@ -76411,7 +76412,7 @@
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>42428</v>
       </c>
       <c r="B60" t="s">
@@ -76476,7 +76477,7 @@
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>42429</v>
       </c>
       <c r="B61" t="s">
@@ -76541,7 +76542,7 @@
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>42430</v>
       </c>
       <c r="B62" t="s">
@@ -76606,7 +76607,7 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>42431</v>
       </c>
       <c r="B63" t="s">
@@ -76671,7 +76672,7 @@
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>42432</v>
       </c>
       <c r="B64" t="s">
@@ -76736,7 +76737,7 @@
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>42433</v>
       </c>
       <c r="B65" t="s">
@@ -76801,7 +76802,7 @@
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>42434</v>
       </c>
       <c r="B66" t="s">
@@ -76866,7 +76867,7 @@
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>42435</v>
       </c>
       <c r="B67" t="s">
@@ -76931,7 +76932,7 @@
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>42436</v>
       </c>
       <c r="B68" t="s">
@@ -76996,7 +76997,7 @@
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>42437</v>
       </c>
       <c r="B69" t="s">
@@ -77061,7 +77062,7 @@
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>42438</v>
       </c>
       <c r="B70" t="s">
@@ -77126,7 +77127,7 @@
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>42439</v>
       </c>
       <c r="B71" t="s">
@@ -77191,7 +77192,7 @@
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>42440</v>
       </c>
       <c r="B72" t="s">
@@ -77256,7 +77257,7 @@
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>42441</v>
       </c>
       <c r="B73" t="s">
@@ -77321,7 +77322,7 @@
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>42442</v>
       </c>
       <c r="B74" t="s">
@@ -77386,7 +77387,7 @@
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>42443</v>
       </c>
       <c r="B75" t="s">
@@ -77451,7 +77452,7 @@
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>42444</v>
       </c>
       <c r="B76" t="s">
@@ -77516,7 +77517,7 @@
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>42445</v>
       </c>
       <c r="B77" t="s">
@@ -77581,7 +77582,7 @@
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>42446</v>
       </c>
       <c r="B78" t="s">
@@ -77646,7 +77647,7 @@
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>42447</v>
       </c>
       <c r="B79" t="s">
@@ -77711,7 +77712,7 @@
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>42448</v>
       </c>
       <c r="B80" t="s">
@@ -77776,7 +77777,7 @@
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>42449</v>
       </c>
       <c r="B81" t="s">
@@ -77841,7 +77842,7 @@
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>42450</v>
       </c>
       <c r="B82" t="s">
@@ -77906,7 +77907,7 @@
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>42451</v>
       </c>
       <c r="B83" t="s">
@@ -77971,7 +77972,7 @@
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>42452</v>
       </c>
       <c r="B84" t="s">
@@ -78036,7 +78037,7 @@
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>42453</v>
       </c>
       <c r="B85" t="s">
@@ -78101,7 +78102,7 @@
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>42454</v>
       </c>
       <c r="B86" t="s">
@@ -78166,7 +78167,7 @@
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>42455</v>
       </c>
       <c r="B87" t="s">
@@ -78231,7 +78232,7 @@
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>42456</v>
       </c>
       <c r="B88" t="s">
@@ -78296,7 +78297,7 @@
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>42457</v>
       </c>
       <c r="B89" t="s">
@@ -78361,7 +78362,7 @@
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>42458</v>
       </c>
       <c r="B90" t="s">
@@ -78426,7 +78427,7 @@
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>42459</v>
       </c>
       <c r="B91" t="s">
@@ -78491,7 +78492,7 @@
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>42460</v>
       </c>
       <c r="B92" t="s">
@@ -78556,7 +78557,7 @@
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>42461</v>
       </c>
       <c r="B93" t="s">
@@ -78621,7 +78622,7 @@
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>42462</v>
       </c>
       <c r="B94" t="s">
@@ -78686,7 +78687,7 @@
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>42463</v>
       </c>
       <c r="B95" t="s">
@@ -78751,7 +78752,7 @@
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>42464</v>
       </c>
       <c r="B96" t="s">
@@ -78816,7 +78817,7 @@
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>42465</v>
       </c>
       <c r="B97" t="s">
@@ -78881,7 +78882,7 @@
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>42466</v>
       </c>
       <c r="B98" t="s">
@@ -78946,7 +78947,7 @@
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>42467</v>
       </c>
       <c r="B99" t="s">
@@ -79011,7 +79012,7 @@
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>42468</v>
       </c>
       <c r="B100" t="s">
@@ -79076,7 +79077,7 @@
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>42469</v>
       </c>
       <c r="B101" t="s">
@@ -79141,7 +79142,7 @@
       </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>42470</v>
       </c>
       <c r="B102" t="s">
@@ -79206,7 +79207,7 @@
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>42471</v>
       </c>
       <c r="B103" t="s">
@@ -79271,7 +79272,7 @@
       </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>42472</v>
       </c>
       <c r="B104" t="s">
@@ -79336,7 +79337,7 @@
       </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>42473</v>
       </c>
       <c r="B105" t="s">
@@ -79401,7 +79402,7 @@
       </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>42474</v>
       </c>
       <c r="B106" t="s">
@@ -79466,7 +79467,7 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>42475</v>
       </c>
       <c r="B107" t="s">
@@ -79531,7 +79532,7 @@
       </c>
     </row>
     <row r="108" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>42476</v>
       </c>
       <c r="B108" t="s">
@@ -79596,7 +79597,7 @@
       </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>42477</v>
       </c>
       <c r="B109" t="s">
@@ -79661,7 +79662,7 @@
       </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>42478</v>
       </c>
       <c r="B110" t="s">
@@ -79726,7 +79727,7 @@
       </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>42479</v>
       </c>
       <c r="B111" t="s">
@@ -79791,7 +79792,7 @@
       </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>42480</v>
       </c>
       <c r="B112" t="s">
@@ -79856,7 +79857,7 @@
       </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>42481</v>
       </c>
       <c r="B113" t="s">
@@ -79921,7 +79922,7 @@
       </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>42482</v>
       </c>
       <c r="B114" t="s">
@@ -79986,7 +79987,7 @@
       </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>42483</v>
       </c>
       <c r="B115" t="s">
@@ -80051,7 +80052,7 @@
       </c>
     </row>
     <row r="116" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>42484</v>
       </c>
       <c r="B116" t="s">
@@ -80116,7 +80117,7 @@
       </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>42485</v>
       </c>
       <c r="B117" t="s">
@@ -80181,7 +80182,7 @@
       </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>42486</v>
       </c>
       <c r="B118" t="s">
@@ -80246,7 +80247,7 @@
       </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>42487</v>
       </c>
       <c r="B119" t="s">
@@ -80311,7 +80312,7 @@
       </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>42488</v>
       </c>
       <c r="B120" t="s">
@@ -80376,7 +80377,7 @@
       </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>42489</v>
       </c>
       <c r="B121" t="s">
@@ -80441,7 +80442,7 @@
       </c>
     </row>
     <row r="122" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>42490</v>
       </c>
       <c r="B122" t="s">
@@ -80506,7 +80507,7 @@
       </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>42491</v>
       </c>
       <c r="B123" t="s">
@@ -80571,7 +80572,7 @@
       </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>42492</v>
       </c>
       <c r="B124" t="s">
@@ -80636,7 +80637,7 @@
       </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>42493</v>
       </c>
       <c r="B125" t="s">
@@ -80701,7 +80702,7 @@
       </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>42494</v>
       </c>
       <c r="B126" t="s">
@@ -80766,7 +80767,7 @@
       </c>
     </row>
     <row r="127" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>42495</v>
       </c>
       <c r="B127" t="s">
@@ -80831,7 +80832,7 @@
       </c>
     </row>
     <row r="128" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>42496</v>
       </c>
       <c r="B128" t="s">
@@ -80896,7 +80897,7 @@
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>42497</v>
       </c>
       <c r="B129" t="s">
@@ -80961,7 +80962,7 @@
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>42498</v>
       </c>
       <c r="B130" t="s">
@@ -81026,7 +81027,7 @@
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>42499</v>
       </c>
       <c r="B131" t="s">
@@ -81091,7 +81092,7 @@
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>42500</v>
       </c>
       <c r="B132" t="s">
@@ -81156,7 +81157,7 @@
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>42501</v>
       </c>
       <c r="B133" t="s">
@@ -81221,7 +81222,7 @@
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>42502</v>
       </c>
       <c r="B134" t="s">
@@ -81286,7 +81287,7 @@
       </c>
     </row>
     <row r="135" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>42503</v>
       </c>
       <c r="B135" t="s">
@@ -81351,7 +81352,7 @@
       </c>
     </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>42504</v>
       </c>
       <c r="B136" t="s">
@@ -81416,7 +81417,7 @@
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>42505</v>
       </c>
       <c r="B137" t="s">
@@ -81481,7 +81482,7 @@
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>42506</v>
       </c>
       <c r="B138" t="s">
@@ -81546,7 +81547,7 @@
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>42507</v>
       </c>
       <c r="B139" t="s">
@@ -81611,7 +81612,7 @@
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>42508</v>
       </c>
       <c r="B140" t="s">
@@ -81676,7 +81677,7 @@
       </c>
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>42509</v>
       </c>
       <c r="B141" t="s">
@@ -81741,7 +81742,7 @@
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>42510</v>
       </c>
       <c r="B142" t="s">
@@ -81806,7 +81807,7 @@
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>42511</v>
       </c>
       <c r="B143" t="s">
@@ -81871,7 +81872,7 @@
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>42512</v>
       </c>
       <c r="B144" t="s">
@@ -81936,7 +81937,7 @@
       </c>
     </row>
     <row r="145" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>42513</v>
       </c>
       <c r="B145" t="s">
@@ -82001,7 +82002,7 @@
       </c>
     </row>
     <row r="146" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>42514</v>
       </c>
       <c r="B146" t="s">
@@ -82066,7 +82067,7 @@
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>42515</v>
       </c>
       <c r="B147" t="s">
@@ -82131,7 +82132,7 @@
       </c>
     </row>
     <row r="148" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>42516</v>
       </c>
       <c r="B148" t="s">
@@ -82196,7 +82197,7 @@
       </c>
     </row>
     <row r="149" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>42517</v>
       </c>
       <c r="B149" t="s">
@@ -82261,7 +82262,7 @@
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>42518</v>
       </c>
       <c r="B150" t="s">
@@ -82326,7 +82327,7 @@
       </c>
     </row>
     <row r="151" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>42519</v>
       </c>
       <c r="B151" t="s">
@@ -82391,7 +82392,7 @@
       </c>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>42520</v>
       </c>
       <c r="B152" t="s">
@@ -82456,7 +82457,7 @@
       </c>
     </row>
     <row r="153" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>42521</v>
       </c>
       <c r="B153" t="s">
@@ -82521,7 +82522,7 @@
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>42522</v>
       </c>
       <c r="B154" t="s">
@@ -82586,7 +82587,7 @@
       </c>
     </row>
     <row r="155" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>42523</v>
       </c>
       <c r="B155" t="s">
@@ -82651,7 +82652,7 @@
       </c>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>42524</v>
       </c>
       <c r="B156" t="s">
@@ -82716,7 +82717,7 @@
       </c>
     </row>
     <row r="157" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>42525</v>
       </c>
       <c r="B157" t="s">
@@ -82781,7 +82782,7 @@
       </c>
     </row>
     <row r="158" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>42526</v>
       </c>
       <c r="B158" t="s">
@@ -82846,7 +82847,7 @@
       </c>
     </row>
     <row r="159" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>42527</v>
       </c>
       <c r="B159" t="s">
@@ -82911,7 +82912,7 @@
       </c>
     </row>
     <row r="160" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>42528</v>
       </c>
       <c r="B160" t="s">
@@ -82976,7 +82977,7 @@
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>42529</v>
       </c>
       <c r="B161" t="s">
@@ -83041,7 +83042,7 @@
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>42530</v>
       </c>
       <c r="B162" t="s">
@@ -83106,7 +83107,7 @@
       </c>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>42531</v>
       </c>
       <c r="B163" t="s">
@@ -83171,7 +83172,7 @@
       </c>
     </row>
     <row r="164" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>42532</v>
       </c>
       <c r="B164" t="s">
@@ -83236,7 +83237,7 @@
       </c>
     </row>
     <row r="165" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>42533</v>
       </c>
       <c r="B165" t="s">
@@ -83301,7 +83302,7 @@
       </c>
     </row>
     <row r="166" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>42534</v>
       </c>
       <c r="B166" t="s">
@@ -83366,7 +83367,7 @@
       </c>
     </row>
     <row r="167" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>42535</v>
       </c>
       <c r="B167" t="s">
@@ -83431,7 +83432,7 @@
       </c>
     </row>
     <row r="168" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>42536</v>
       </c>
       <c r="B168" t="s">
@@ -83496,7 +83497,7 @@
       </c>
     </row>
     <row r="169" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>42537</v>
       </c>
       <c r="B169" t="s">
@@ -83561,7 +83562,7 @@
       </c>
     </row>
     <row r="170" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>42538</v>
       </c>
       <c r="B170" t="s">
@@ -83626,7 +83627,7 @@
       </c>
     </row>
     <row r="171" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>42539</v>
       </c>
       <c r="B171" t="s">
@@ -83691,7 +83692,7 @@
       </c>
     </row>
     <row r="172" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>42540</v>
       </c>
       <c r="B172" t="s">
@@ -83756,7 +83757,7 @@
       </c>
     </row>
     <row r="173" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>42541</v>
       </c>
       <c r="B173" t="s">
@@ -83821,7 +83822,7 @@
       </c>
     </row>
     <row r="174" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>42542</v>
       </c>
       <c r="B174" t="s">
@@ -83886,7 +83887,7 @@
       </c>
     </row>
     <row r="175" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>42543</v>
       </c>
       <c r="B175" t="s">
@@ -83951,7 +83952,7 @@
       </c>
     </row>
     <row r="176" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>42544</v>
       </c>
       <c r="B176" t="s">
@@ -84016,7 +84017,7 @@
       </c>
     </row>
     <row r="177" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>42545</v>
       </c>
       <c r="B177" t="s">
@@ -84081,7 +84082,7 @@
       </c>
     </row>
     <row r="178" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>42546</v>
       </c>
       <c r="B178" t="s">
@@ -84146,7 +84147,7 @@
       </c>
     </row>
     <row r="179" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>42547</v>
       </c>
       <c r="B179" t="s">
@@ -84211,7 +84212,7 @@
       </c>
     </row>
     <row r="180" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>42548</v>
       </c>
       <c r="B180" t="s">
@@ -84276,7 +84277,7 @@
       </c>
     </row>
     <row r="181" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>42549</v>
       </c>
       <c r="B181" t="s">
@@ -84341,7 +84342,7 @@
       </c>
     </row>
     <row r="182" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>42550</v>
       </c>
       <c r="B182" t="s">
@@ -84406,7 +84407,7 @@
       </c>
     </row>
     <row r="183" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>42551</v>
       </c>
       <c r="B183" t="s">
@@ -84471,7 +84472,7 @@
       </c>
     </row>
     <row r="184" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>42552</v>
       </c>
       <c r="B184" t="s">
@@ -84536,7 +84537,7 @@
       </c>
     </row>
     <row r="185" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>42553</v>
       </c>
       <c r="B185" t="s">
@@ -84601,7 +84602,7 @@
       </c>
     </row>
     <row r="186" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>42554</v>
       </c>
       <c r="B186" t="s">
@@ -84666,7 +84667,7 @@
       </c>
     </row>
     <row r="187" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>42555</v>
       </c>
       <c r="B187" t="s">
@@ -84731,7 +84732,7 @@
       </c>
     </row>
     <row r="188" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>42556</v>
       </c>
       <c r="B188" t="s">
@@ -84796,7 +84797,7 @@
       </c>
     </row>
     <row r="189" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>42557</v>
       </c>
       <c r="B189" t="s">
@@ -84861,7 +84862,7 @@
       </c>
     </row>
     <row r="190" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>42558</v>
       </c>
       <c r="B190" t="s">
@@ -84926,7 +84927,7 @@
       </c>
     </row>
     <row r="191" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>42559</v>
       </c>
       <c r="B191" t="s">
@@ -84991,7 +84992,7 @@
       </c>
     </row>
     <row r="192" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>42560</v>
       </c>
       <c r="B192" t="s">
@@ -85056,7 +85057,7 @@
       </c>
     </row>
     <row r="193" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>42561</v>
       </c>
       <c r="B193" t="s">
@@ -85121,7 +85122,7 @@
       </c>
     </row>
     <row r="194" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>42562</v>
       </c>
       <c r="B194" t="s">
@@ -85186,7 +85187,7 @@
       </c>
     </row>
     <row r="195" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>42563</v>
       </c>
       <c r="B195" t="s">
@@ -85251,7 +85252,7 @@
       </c>
     </row>
     <row r="196" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>42564</v>
       </c>
       <c r="B196" t="s">
@@ -85316,7 +85317,7 @@
       </c>
     </row>
     <row r="197" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>42565</v>
       </c>
       <c r="B197" t="s">
@@ -85381,7 +85382,7 @@
       </c>
     </row>
     <row r="198" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>42566</v>
       </c>
       <c r="B198" t="s">
@@ -85446,7 +85447,7 @@
       </c>
     </row>
     <row r="199" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>42567</v>
       </c>
       <c r="B199" t="s">
@@ -85511,7 +85512,7 @@
       </c>
     </row>
     <row r="200" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>42568</v>
       </c>
       <c r="B200" t="s">
@@ -85576,7 +85577,7 @@
       </c>
     </row>
     <row r="201" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>42569</v>
       </c>
       <c r="B201" t="s">
@@ -85641,7 +85642,7 @@
       </c>
     </row>
     <row r="202" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>42570</v>
       </c>
       <c r="B202" t="s">
@@ -85706,7 +85707,7 @@
       </c>
     </row>
     <row r="203" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>42571</v>
       </c>
       <c r="B203" t="s">
@@ -85771,7 +85772,7 @@
       </c>
     </row>
     <row r="204" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>42572</v>
       </c>
       <c r="B204" t="s">
@@ -85836,7 +85837,7 @@
       </c>
     </row>
     <row r="205" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>42573</v>
       </c>
       <c r="B205" t="s">
@@ -85901,7 +85902,7 @@
       </c>
     </row>
     <row r="206" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>42574</v>
       </c>
       <c r="B206" t="s">
@@ -85966,7 +85967,7 @@
       </c>
     </row>
     <row r="207" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>42575</v>
       </c>
       <c r="B207" t="s">
@@ -86031,7 +86032,7 @@
       </c>
     </row>
     <row r="208" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>42576</v>
       </c>
       <c r="B208" t="s">
@@ -86096,7 +86097,7 @@
       </c>
     </row>
     <row r="209" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>42577</v>
       </c>
       <c r="B209" t="s">
@@ -86161,7 +86162,7 @@
       </c>
     </row>
     <row r="210" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>42578</v>
       </c>
       <c r="B210" t="s">
@@ -86226,7 +86227,7 @@
       </c>
     </row>
     <row r="211" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>42579</v>
       </c>
       <c r="B211" t="s">
@@ -86291,7 +86292,7 @@
       </c>
     </row>
     <row r="212" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>42580</v>
       </c>
       <c r="B212" t="s">
@@ -86356,7 +86357,7 @@
       </c>
     </row>
     <row r="213" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A213">
+      <c r="A213" s="1">
         <v>42581</v>
       </c>
       <c r="B213" t="s">
@@ -86421,7 +86422,7 @@
       </c>
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A214">
+      <c r="A214" s="1">
         <v>42582</v>
       </c>
       <c r="B214" t="s">
@@ -86486,7 +86487,7 @@
       </c>
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>42583</v>
       </c>
       <c r="B215" t="s">
@@ -86551,7 +86552,7 @@
       </c>
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A216">
+      <c r="A216" s="1">
         <v>42584</v>
       </c>
       <c r="B216" t="s">
@@ -86616,7 +86617,7 @@
       </c>
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A217">
+      <c r="A217" s="1">
         <v>42585</v>
       </c>
       <c r="B217" t="s">
@@ -86681,7 +86682,7 @@
       </c>
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A218">
+      <c r="A218" s="1">
         <v>42586</v>
       </c>
       <c r="B218" t="s">
@@ -86746,7 +86747,7 @@
       </c>
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A219">
+      <c r="A219" s="1">
         <v>42587</v>
       </c>
       <c r="B219" t="s">
@@ -86811,7 +86812,7 @@
       </c>
     </row>
     <row r="220" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A220">
+      <c r="A220" s="1">
         <v>42588</v>
       </c>
       <c r="B220" t="s">
@@ -86876,7 +86877,7 @@
       </c>
     </row>
     <row r="221" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A221">
+      <c r="A221" s="1">
         <v>42589</v>
       </c>
       <c r="B221" t="s">
@@ -86941,7 +86942,7 @@
       </c>
     </row>
     <row r="222" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A222">
+      <c r="A222" s="1">
         <v>42590</v>
       </c>
       <c r="B222" t="s">
@@ -87006,7 +87007,7 @@
       </c>
     </row>
     <row r="223" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A223">
+      <c r="A223" s="1">
         <v>42591</v>
       </c>
       <c r="B223" t="s">
@@ -87071,7 +87072,7 @@
       </c>
     </row>
     <row r="224" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A224">
+      <c r="A224" s="1">
         <v>42592</v>
       </c>
       <c r="B224" t="s">
@@ -87136,7 +87137,7 @@
       </c>
     </row>
     <row r="225" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A225">
+      <c r="A225" s="1">
         <v>42593</v>
       </c>
       <c r="B225" t="s">
@@ -87201,7 +87202,7 @@
       </c>
     </row>
     <row r="226" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A226">
+      <c r="A226" s="1">
         <v>42594</v>
       </c>
       <c r="B226" t="s">
@@ -87266,7 +87267,7 @@
       </c>
     </row>
     <row r="227" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A227">
+      <c r="A227" s="1">
         <v>42595</v>
       </c>
       <c r="B227" t="s">
@@ -87331,7 +87332,7 @@
       </c>
     </row>
     <row r="228" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A228">
+      <c r="A228" s="1">
         <v>42596</v>
       </c>
       <c r="B228" t="s">
@@ -87396,7 +87397,7 @@
       </c>
     </row>
     <row r="229" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A229">
+      <c r="A229" s="1">
         <v>42597</v>
       </c>
       <c r="B229" t="s">
@@ -87461,7 +87462,7 @@
       </c>
     </row>
     <row r="230" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A230">
+      <c r="A230" s="1">
         <v>42598</v>
       </c>
       <c r="B230" t="s">
@@ -87526,7 +87527,7 @@
       </c>
     </row>
     <row r="231" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A231">
+      <c r="A231" s="1">
         <v>42599</v>
       </c>
       <c r="B231" t="s">
@@ -87591,7 +87592,7 @@
       </c>
     </row>
     <row r="232" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A232">
+      <c r="A232" s="1">
         <v>42600</v>
       </c>
       <c r="B232" t="s">
@@ -87656,7 +87657,7 @@
       </c>
     </row>
     <row r="233" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A233">
+      <c r="A233" s="1">
         <v>42601</v>
       </c>
       <c r="B233" t="s">
@@ -87721,7 +87722,7 @@
       </c>
     </row>
     <row r="234" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A234">
+      <c r="A234" s="1">
         <v>42602</v>
       </c>
       <c r="B234" t="s">
@@ -87786,7 +87787,7 @@
       </c>
     </row>
     <row r="235" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A235">
+      <c r="A235" s="1">
         <v>42603</v>
       </c>
       <c r="B235" t="s">
@@ -87851,7 +87852,7 @@
       </c>
     </row>
     <row r="236" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A236">
+      <c r="A236" s="1">
         <v>42604</v>
       </c>
       <c r="B236" t="s">
@@ -87916,7 +87917,7 @@
       </c>
     </row>
     <row r="237" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A237">
+      <c r="A237" s="1">
         <v>42605</v>
       </c>
       <c r="B237" t="s">
@@ -87981,7 +87982,7 @@
       </c>
     </row>
     <row r="238" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A238">
+      <c r="A238" s="1">
         <v>42606</v>
       </c>
       <c r="B238" t="s">
@@ -88046,7 +88047,7 @@
       </c>
     </row>
     <row r="239" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A239">
+      <c r="A239" s="1">
         <v>42607</v>
       </c>
       <c r="B239" t="s">
@@ -88111,7 +88112,7 @@
       </c>
     </row>
     <row r="240" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A240">
+      <c r="A240" s="1">
         <v>42608</v>
       </c>
       <c r="B240" t="s">
@@ -88176,7 +88177,7 @@
       </c>
     </row>
     <row r="241" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A241">
+      <c r="A241" s="1">
         <v>42609</v>
       </c>
       <c r="B241" t="s">
@@ -88241,7 +88242,7 @@
       </c>
     </row>
     <row r="242" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A242">
+      <c r="A242" s="1">
         <v>42610</v>
       </c>
       <c r="B242" t="s">
@@ -88306,7 +88307,7 @@
       </c>
     </row>
     <row r="243" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A243">
+      <c r="A243" s="1">
         <v>42611</v>
       </c>
       <c r="B243" t="s">
@@ -88371,7 +88372,7 @@
       </c>
     </row>
     <row r="244" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A244">
+      <c r="A244" s="1">
         <v>42612</v>
       </c>
       <c r="B244" t="s">
@@ -88436,7 +88437,7 @@
       </c>
     </row>
     <row r="245" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A245">
+      <c r="A245" s="1">
         <v>42613</v>
       </c>
       <c r="B245" t="s">
@@ -88501,7 +88502,7 @@
       </c>
     </row>
     <row r="246" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A246">
+      <c r="A246" s="1">
         <v>42614</v>
       </c>
       <c r="B246" t="s">
@@ -88566,7 +88567,7 @@
       </c>
     </row>
     <row r="247" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A247">
+      <c r="A247" s="1">
         <v>42615</v>
       </c>
       <c r="B247" t="s">
@@ -88631,7 +88632,7 @@
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A248">
+      <c r="A248" s="1">
         <v>42616</v>
       </c>
       <c r="B248" t="s">
@@ -88696,7 +88697,7 @@
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A249">
+      <c r="A249" s="1">
         <v>42617</v>
       </c>
       <c r="B249" t="s">
@@ -88761,7 +88762,7 @@
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A250">
+      <c r="A250" s="1">
         <v>42618</v>
       </c>
       <c r="B250" t="s">
@@ -88826,7 +88827,7 @@
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A251">
+      <c r="A251" s="1">
         <v>42619</v>
       </c>
       <c r="B251" t="s">
@@ -88891,7 +88892,7 @@
       </c>
     </row>
     <row r="252" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A252">
+      <c r="A252" s="1">
         <v>42620</v>
       </c>
       <c r="B252" t="s">
@@ -88956,7 +88957,7 @@
       </c>
     </row>
     <row r="253" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A253">
+      <c r="A253" s="1">
         <v>42621</v>
       </c>
       <c r="B253" t="s">
@@ -89021,7 +89022,7 @@
       </c>
     </row>
     <row r="254" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A254">
+      <c r="A254" s="1">
         <v>42622</v>
       </c>
       <c r="B254" t="s">
@@ -89086,7 +89087,7 @@
       </c>
     </row>
     <row r="255" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A255">
+      <c r="A255" s="1">
         <v>42623</v>
       </c>
       <c r="B255" t="s">
@@ -89151,7 +89152,7 @@
       </c>
     </row>
     <row r="256" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A256">
+      <c r="A256" s="1">
         <v>42624</v>
       </c>
       <c r="B256" t="s">
@@ -89216,7 +89217,7 @@
       </c>
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A257">
+      <c r="A257" s="1">
         <v>42625</v>
       </c>
       <c r="B257" t="s">
@@ -89281,7 +89282,7 @@
       </c>
     </row>
     <row r="258" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A258">
+      <c r="A258" s="1">
         <v>42626</v>
       </c>
       <c r="B258" t="s">
@@ -89346,7 +89347,7 @@
       </c>
     </row>
     <row r="259" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A259">
+      <c r="A259" s="1">
         <v>42627</v>
       </c>
       <c r="B259" t="s">
@@ -89411,7 +89412,7 @@
       </c>
     </row>
     <row r="260" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A260">
+      <c r="A260" s="1">
         <v>42628</v>
       </c>
       <c r="B260" t="s">
@@ -89476,7 +89477,7 @@
       </c>
     </row>
     <row r="261" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A261">
+      <c r="A261" s="1">
         <v>42629</v>
       </c>
       <c r="B261" t="s">
@@ -89541,7 +89542,7 @@
       </c>
     </row>
     <row r="262" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A262">
+      <c r="A262" s="1">
         <v>42630</v>
       </c>
       <c r="B262" t="s">
@@ -89606,7 +89607,7 @@
       </c>
     </row>
     <row r="263" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A263">
+      <c r="A263" s="1">
         <v>42631</v>
       </c>
       <c r="B263" t="s">
@@ -89671,7 +89672,7 @@
       </c>
     </row>
     <row r="264" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A264">
+      <c r="A264" s="1">
         <v>42632</v>
       </c>
       <c r="B264" t="s">
@@ -89736,7 +89737,7 @@
       </c>
     </row>
     <row r="265" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A265">
+      <c r="A265" s="1">
         <v>42633</v>
       </c>
       <c r="B265" t="s">
@@ -89801,7 +89802,7 @@
       </c>
     </row>
     <row r="266" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A266">
+      <c r="A266" s="1">
         <v>42634</v>
       </c>
       <c r="B266" t="s">
@@ -89866,7 +89867,7 @@
       </c>
     </row>
     <row r="267" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A267">
+      <c r="A267" s="1">
         <v>42635</v>
       </c>
       <c r="B267" t="s">
@@ -89931,7 +89932,7 @@
       </c>
     </row>
     <row r="268" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A268">
+      <c r="A268" s="1">
         <v>42636</v>
       </c>
       <c r="B268" t="s">
@@ -89996,7 +89997,7 @@
       </c>
     </row>
     <row r="269" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A269">
+      <c r="A269" s="1">
         <v>42637</v>
       </c>
       <c r="B269" t="s">
@@ -90061,7 +90062,7 @@
       </c>
     </row>
     <row r="270" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A270">
+      <c r="A270" s="1">
         <v>42638</v>
       </c>
       <c r="B270" t="s">
@@ -90126,7 +90127,7 @@
       </c>
     </row>
     <row r="271" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A271">
+      <c r="A271" s="1">
         <v>42639</v>
       </c>
       <c r="B271" t="s">
@@ -90191,7 +90192,7 @@
       </c>
     </row>
     <row r="272" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A272">
+      <c r="A272" s="1">
         <v>42640</v>
       </c>
       <c r="B272" t="s">
@@ -90256,7 +90257,7 @@
       </c>
     </row>
     <row r="273" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A273">
+      <c r="A273" s="1">
         <v>42641</v>
       </c>
       <c r="B273" t="s">
@@ -90321,7 +90322,7 @@
       </c>
     </row>
     <row r="274" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A274">
+      <c r="A274" s="1">
         <v>42642</v>
       </c>
       <c r="B274" t="s">
@@ -90386,7 +90387,7 @@
       </c>
     </row>
     <row r="275" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A275">
+      <c r="A275" s="1">
         <v>42643</v>
       </c>
       <c r="B275" t="s">
@@ -90451,7 +90452,7 @@
       </c>
     </row>
     <row r="276" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A276">
+      <c r="A276" s="1">
         <v>42644</v>
       </c>
       <c r="B276" t="s">
@@ -90516,7 +90517,7 @@
       </c>
     </row>
     <row r="277" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A277">
+      <c r="A277" s="1">
         <v>42645</v>
       </c>
       <c r="B277" t="s">
@@ -90581,7 +90582,7 @@
       </c>
     </row>
     <row r="278" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A278">
+      <c r="A278" s="1">
         <v>42646</v>
       </c>
       <c r="B278" t="s">
@@ -90646,7 +90647,7 @@
       </c>
     </row>
     <row r="279" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A279">
+      <c r="A279" s="1">
         <v>42647</v>
       </c>
       <c r="B279" t="s">
@@ -90711,7 +90712,7 @@
       </c>
     </row>
     <row r="280" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A280">
+      <c r="A280" s="1">
         <v>42648</v>
       </c>
       <c r="B280" t="s">
@@ -90776,7 +90777,7 @@
       </c>
     </row>
     <row r="281" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A281">
+      <c r="A281" s="1">
         <v>42649</v>
       </c>
       <c r="B281" t="s">
@@ -90841,7 +90842,7 @@
       </c>
     </row>
     <row r="282" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A282">
+      <c r="A282" s="1">
         <v>42650</v>
       </c>
       <c r="B282" t="s">
@@ -90906,7 +90907,7 @@
       </c>
     </row>
     <row r="283" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A283">
+      <c r="A283" s="1">
         <v>42651</v>
       </c>
       <c r="B283" t="s">
@@ -90971,7 +90972,7 @@
       </c>
     </row>
     <row r="284" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A284">
+      <c r="A284" s="1">
         <v>42652</v>
       </c>
       <c r="B284" t="s">
@@ -91036,7 +91037,7 @@
       </c>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A285">
+      <c r="A285" s="1">
         <v>42653</v>
       </c>
       <c r="B285" t="s">
@@ -91101,7 +91102,7 @@
       </c>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A286">
+      <c r="A286" s="1">
         <v>42654</v>
       </c>
       <c r="B286" t="s">
@@ -91166,7 +91167,7 @@
       </c>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A287">
+      <c r="A287" s="1">
         <v>42655</v>
       </c>
       <c r="B287" t="s">
@@ -91231,7 +91232,7 @@
       </c>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A288">
+      <c r="A288" s="1">
         <v>42656</v>
       </c>
       <c r="B288" t="s">
@@ -91296,7 +91297,7 @@
       </c>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A289">
+      <c r="A289" s="1">
         <v>42657</v>
       </c>
       <c r="B289" t="s">
@@ -91361,7 +91362,7 @@
       </c>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A290">
+      <c r="A290" s="1">
         <v>42658</v>
       </c>
       <c r="B290" t="s">
@@ -91426,7 +91427,7 @@
       </c>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A291">
+      <c r="A291" s="1">
         <v>42659</v>
       </c>
       <c r="B291" t="s">
@@ -91491,7 +91492,7 @@
       </c>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A292">
+      <c r="A292" s="1">
         <v>42660</v>
       </c>
       <c r="B292" t="s">
@@ -91556,7 +91557,7 @@
       </c>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A293">
+      <c r="A293" s="1">
         <v>42661</v>
       </c>
       <c r="B293" t="s">
@@ -91621,7 +91622,7 @@
       </c>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A294">
+      <c r="A294" s="1">
         <v>42662</v>
       </c>
       <c r="B294" t="s">
@@ -91686,7 +91687,7 @@
       </c>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A295">
+      <c r="A295" s="1">
         <v>42663</v>
       </c>
       <c r="B295" t="s">
@@ -91751,7 +91752,7 @@
       </c>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A296">
+      <c r="A296" s="1">
         <v>42664</v>
       </c>
       <c r="B296" t="s">
@@ -91816,7 +91817,7 @@
       </c>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A297">
+      <c r="A297" s="1">
         <v>42665</v>
       </c>
       <c r="B297" t="s">
@@ -91881,7 +91882,7 @@
       </c>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A298">
+      <c r="A298" s="1">
         <v>42666</v>
       </c>
       <c r="B298" t="s">
@@ -91946,7 +91947,7 @@
       </c>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A299">
+      <c r="A299" s="1">
         <v>42667</v>
       </c>
       <c r="B299" t="s">
@@ -92011,7 +92012,7 @@
       </c>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A300">
+      <c r="A300" s="1">
         <v>42668</v>
       </c>
       <c r="B300" t="s">
@@ -92076,7 +92077,7 @@
       </c>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A301">
+      <c r="A301" s="1">
         <v>42669</v>
       </c>
       <c r="B301" t="s">
@@ -92141,7 +92142,7 @@
       </c>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A302">
+      <c r="A302" s="1">
         <v>42670</v>
       </c>
       <c r="B302" t="s">
@@ -92206,7 +92207,7 @@
       </c>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A303">
+      <c r="A303" s="1">
         <v>42671</v>
       </c>
       <c r="B303" t="s">
@@ -92271,7 +92272,7 @@
       </c>
     </row>
     <row r="304" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A304">
+      <c r="A304" s="1">
         <v>42672</v>
       </c>
       <c r="B304" t="s">
@@ -92336,7 +92337,7 @@
       </c>
     </row>
     <row r="305" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A305">
+      <c r="A305" s="1">
         <v>42673</v>
       </c>
       <c r="B305" t="s">
@@ -92401,7 +92402,7 @@
       </c>
     </row>
     <row r="306" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A306">
+      <c r="A306" s="1">
         <v>42674</v>
       </c>
       <c r="B306" t="s">
@@ -92466,7 +92467,7 @@
       </c>
     </row>
     <row r="307" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A307">
+      <c r="A307" s="1">
         <v>42675</v>
       </c>
       <c r="B307" t="s">
@@ -92531,7 +92532,7 @@
       </c>
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A308">
+      <c r="A308" s="1">
         <v>42676</v>
       </c>
       <c r="B308" t="s">
@@ -92596,7 +92597,7 @@
       </c>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A309">
+      <c r="A309" s="1">
         <v>42677</v>
       </c>
       <c r="B309" t="s">
@@ -92661,7 +92662,7 @@
       </c>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A310">
+      <c r="A310" s="1">
         <v>42678</v>
       </c>
       <c r="B310" t="s">
@@ -92726,7 +92727,7 @@
       </c>
     </row>
     <row r="311" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A311">
+      <c r="A311" s="1">
         <v>42679</v>
       </c>
       <c r="B311" t="s">
@@ -92791,7 +92792,7 @@
       </c>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A312">
+      <c r="A312" s="1">
         <v>42680</v>
       </c>
       <c r="B312" t="s">
@@ -92856,7 +92857,7 @@
       </c>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A313">
+      <c r="A313" s="1">
         <v>42681</v>
       </c>
       <c r="B313" t="s">
@@ -92921,7 +92922,7 @@
       </c>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A314">
+      <c r="A314" s="1">
         <v>42682</v>
       </c>
       <c r="B314" t="s">
@@ -92986,7 +92987,7 @@
       </c>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A315">
+      <c r="A315" s="1">
         <v>42683</v>
       </c>
       <c r="B315" t="s">
@@ -93051,7 +93052,7 @@
       </c>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A316">
+      <c r="A316" s="1">
         <v>42684</v>
       </c>
       <c r="B316" t="s">
@@ -93116,7 +93117,7 @@
       </c>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A317">
+      <c r="A317" s="1">
         <v>42685</v>
       </c>
       <c r="B317" t="s">
@@ -93181,7 +93182,7 @@
       </c>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A318">
+      <c r="A318" s="1">
         <v>42686</v>
       </c>
       <c r="B318" t="s">
@@ -93246,7 +93247,7 @@
       </c>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A319">
+      <c r="A319" s="1">
         <v>42687</v>
       </c>
       <c r="B319" t="s">
@@ -93311,7 +93312,7 @@
       </c>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A320">
+      <c r="A320" s="1">
         <v>42688</v>
       </c>
       <c r="B320" t="s">
@@ -93376,7 +93377,7 @@
       </c>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A321">
+      <c r="A321" s="1">
         <v>42689</v>
       </c>
       <c r="B321" t="s">
@@ -93441,7 +93442,7 @@
       </c>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A322">
+      <c r="A322" s="1">
         <v>42690</v>
       </c>
       <c r="B322" t="s">
@@ -93506,7 +93507,7 @@
       </c>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A323">
+      <c r="A323" s="1">
         <v>42691</v>
       </c>
       <c r="B323" t="s">
@@ -93571,7 +93572,7 @@
       </c>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A324">
+      <c r="A324" s="1">
         <v>42692</v>
       </c>
       <c r="B324" t="s">
@@ -93636,7 +93637,7 @@
       </c>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A325">
+      <c r="A325" s="1">
         <v>42693</v>
       </c>
       <c r="B325" t="s">
@@ -93701,7 +93702,7 @@
       </c>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A326">
+      <c r="A326" s="1">
         <v>42694</v>
       </c>
       <c r="B326" t="s">
@@ -93766,7 +93767,7 @@
       </c>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A327">
+      <c r="A327" s="1">
         <v>42695</v>
       </c>
       <c r="B327" t="s">
@@ -93831,7 +93832,7 @@
       </c>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A328">
+      <c r="A328" s="1">
         <v>42696</v>
       </c>
       <c r="B328" t="s">
@@ -93896,7 +93897,7 @@
       </c>
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A329">
+      <c r="A329" s="1">
         <v>42697</v>
       </c>
       <c r="B329" t="s">
@@ -93961,7 +93962,7 @@
       </c>
     </row>
     <row r="330" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A330">
+      <c r="A330" s="1">
         <v>42698</v>
       </c>
       <c r="B330" t="s">
@@ -94026,7 +94027,7 @@
       </c>
     </row>
     <row r="331" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A331">
+      <c r="A331" s="1">
         <v>42699</v>
       </c>
       <c r="B331" t="s">
@@ -94091,7 +94092,7 @@
       </c>
     </row>
     <row r="332" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A332">
+      <c r="A332" s="1">
         <v>42700</v>
       </c>
       <c r="B332" t="s">
@@ -94156,7 +94157,7 @@
       </c>
     </row>
     <row r="333" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A333">
+      <c r="A333" s="1">
         <v>42701</v>
       </c>
       <c r="B333" t="s">
@@ -94221,7 +94222,7 @@
       </c>
     </row>
     <row r="334" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A334">
+      <c r="A334" s="1">
         <v>42702</v>
       </c>
       <c r="B334" t="s">
@@ -94286,7 +94287,7 @@
       </c>
     </row>
     <row r="335" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A335">
+      <c r="A335" s="1">
         <v>42703</v>
       </c>
       <c r="B335" t="s">
@@ -94351,7 +94352,7 @@
       </c>
     </row>
     <row r="336" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A336">
+      <c r="A336" s="1">
         <v>42704</v>
       </c>
       <c r="B336" t="s">
@@ -94416,7 +94417,7 @@
       </c>
     </row>
     <row r="337" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A337">
+      <c r="A337" s="1">
         <v>42705</v>
       </c>
       <c r="B337" t="s">
@@ -94481,7 +94482,7 @@
       </c>
     </row>
     <row r="338" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A338">
+      <c r="A338" s="1">
         <v>42706</v>
       </c>
       <c r="B338" t="s">
@@ -94546,7 +94547,7 @@
       </c>
     </row>
     <row r="339" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A339">
+      <c r="A339" s="1">
         <v>42707</v>
       </c>
       <c r="B339" t="s">
@@ -94611,7 +94612,7 @@
       </c>
     </row>
     <row r="340" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A340">
+      <c r="A340" s="1">
         <v>42708</v>
       </c>
       <c r="B340" t="s">
@@ -94676,7 +94677,7 @@
       </c>
     </row>
     <row r="341" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A341">
+      <c r="A341" s="1">
         <v>42709</v>
       </c>
       <c r="B341" t="s">
@@ -94741,7 +94742,7 @@
       </c>
     </row>
     <row r="342" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A342">
+      <c r="A342" s="1">
         <v>42710</v>
       </c>
       <c r="B342" t="s">
@@ -94806,7 +94807,7 @@
       </c>
     </row>
     <row r="343" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A343">
+      <c r="A343" s="1">
         <v>42711</v>
       </c>
       <c r="B343" t="s">
@@ -94871,7 +94872,7 @@
       </c>
     </row>
     <row r="344" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A344">
+      <c r="A344" s="1">
         <v>42712</v>
       </c>
       <c r="B344" t="s">
@@ -94936,7 +94937,7 @@
       </c>
     </row>
     <row r="345" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A345">
+      <c r="A345" s="1">
         <v>42713</v>
       </c>
       <c r="B345" t="s">
@@ -95001,7 +95002,7 @@
       </c>
     </row>
     <row r="346" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A346">
+      <c r="A346" s="1">
         <v>42714</v>
       </c>
       <c r="B346" t="s">
@@ -95066,7 +95067,7 @@
       </c>
     </row>
     <row r="347" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A347">
+      <c r="A347" s="1">
         <v>42715</v>
       </c>
       <c r="B347" t="s">
@@ -95131,7 +95132,7 @@
       </c>
     </row>
     <row r="348" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A348">
+      <c r="A348" s="1">
         <v>42716</v>
       </c>
       <c r="B348" t="s">
@@ -95196,7 +95197,7 @@
       </c>
     </row>
     <row r="349" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A349">
+      <c r="A349" s="1">
         <v>42717</v>
       </c>
       <c r="B349" t="s">
@@ -95261,7 +95262,7 @@
       </c>
     </row>
     <row r="350" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A350">
+      <c r="A350" s="1">
         <v>42718</v>
       </c>
       <c r="B350" t="s">
@@ -95326,7 +95327,7 @@
       </c>
     </row>
     <row r="351" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A351">
+      <c r="A351" s="1">
         <v>42719</v>
       </c>
       <c r="B351" t="s">
@@ -95391,7 +95392,7 @@
       </c>
     </row>
     <row r="352" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A352">
+      <c r="A352" s="1">
         <v>42720</v>
       </c>
       <c r="B352" t="s">
@@ -95456,7 +95457,7 @@
       </c>
     </row>
     <row r="353" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A353">
+      <c r="A353" s="1">
         <v>42721</v>
       </c>
       <c r="B353" t="s">
@@ -95521,7 +95522,7 @@
       </c>
     </row>
     <row r="354" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A354">
+      <c r="A354" s="1">
         <v>42722</v>
       </c>
       <c r="B354" t="s">
@@ -95586,7 +95587,7 @@
       </c>
     </row>
     <row r="355" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A355">
+      <c r="A355" s="1">
         <v>42723</v>
       </c>
       <c r="B355" t="s">
@@ -95651,7 +95652,7 @@
       </c>
     </row>
     <row r="356" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A356">
+      <c r="A356" s="1">
         <v>42724</v>
       </c>
       <c r="B356" t="s">
@@ -95716,7 +95717,7 @@
       </c>
     </row>
     <row r="357" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A357">
+      <c r="A357" s="1">
         <v>42725</v>
       </c>
       <c r="B357" t="s">
@@ -95781,7 +95782,7 @@
       </c>
     </row>
     <row r="358" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A358">
+      <c r="A358" s="1">
         <v>42726</v>
       </c>
       <c r="B358" t="s">
@@ -95846,7 +95847,7 @@
       </c>
     </row>
     <row r="359" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A359">
+      <c r="A359" s="1">
         <v>42727</v>
       </c>
       <c r="B359" t="s">
@@ -95911,7 +95912,7 @@
       </c>
     </row>
     <row r="360" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A360">
+      <c r="A360" s="1">
         <v>42728</v>
       </c>
       <c r="B360" t="s">
@@ -95976,7 +95977,7 @@
       </c>
     </row>
     <row r="361" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A361">
+      <c r="A361" s="1">
         <v>42729</v>
       </c>
       <c r="B361" t="s">
@@ -96041,7 +96042,7 @@
       </c>
     </row>
     <row r="362" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A362">
+      <c r="A362" s="1">
         <v>42730</v>
       </c>
       <c r="B362" t="s">
@@ -96106,7 +96107,7 @@
       </c>
     </row>
     <row r="363" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A363">
+      <c r="A363" s="1">
         <v>42731</v>
       </c>
       <c r="B363" t="s">
@@ -96171,7 +96172,7 @@
       </c>
     </row>
     <row r="364" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A364">
+      <c r="A364" s="1">
         <v>42732</v>
       </c>
       <c r="B364" t="s">
@@ -96236,7 +96237,7 @@
       </c>
     </row>
     <row r="365" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A365">
+      <c r="A365" s="1">
         <v>42733</v>
       </c>
       <c r="B365" t="s">
@@ -96301,7 +96302,7 @@
       </c>
     </row>
     <row r="366" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A366">
+      <c r="A366" s="1">
         <v>42734</v>
       </c>
       <c r="B366" t="s">
@@ -96366,7 +96367,7 @@
       </c>
     </row>
     <row r="367" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A367">
+      <c r="A367" s="1">
         <v>42735</v>
       </c>
       <c r="B367" t="s">
